--- a/Base.xlsx
+++ b/Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scaiq\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B0BD33-0551-4A25-957A-B1452C048D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA7462-B0C0-4126-99A3-F94CDA8DD48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D82C89C8-6C8F-4F5A-9FEC-D1CF9F32895E}"/>
   </bookViews>
@@ -236,27 +236,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -270,15 +255,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -622,7 +607,7 @@
   <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,13 +686,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
       <c r="I2" s="4">
         <f ca="1">B2+K2-H2</f>
         <v>0</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -746,7 +735,9 @@
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
       <c r="I3" s="4">
         <f ca="1">B3+H2-H3</f>
         <v>0</v>
@@ -791,7 +782,9 @@
         <v>0</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
       <c r="I4" s="4">
         <f ca="1">B4+H3-H4</f>
         <v>0</v>
@@ -836,7 +829,9 @@
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
       <c r="I5" s="4">
         <f t="shared" ref="I5:I32" ca="1" si="1">B5+H4-H5</f>
         <v>0</v>
@@ -881,7 +876,9 @@
         <v>0</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
       <c r="I6" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -926,7 +923,9 @@
         <v>0</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
       <c r="I7" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -971,7 +970,9 @@
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
       <c r="I8" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1016,7 +1017,9 @@
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
       <c r="I9" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1061,7 +1064,9 @@
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
       <c r="I10" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1106,7 +1111,9 @@
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
       <c r="I11" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1151,7 +1158,9 @@
         <v>0</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
       <c r="I12" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1196,7 +1205,9 @@
         <v>0</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
       <c r="I13" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1241,7 +1252,9 @@
         <v>0</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1286,7 +1299,9 @@
         <v>0</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
       <c r="I15" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1331,7 +1346,9 @@
         <v>0</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
       <c r="I16" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1376,7 +1393,9 @@
         <v>0</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1421,7 +1440,9 @@
         <v>0</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
       <c r="I18" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1466,7 +1487,9 @@
         <v>0</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1511,7 +1534,9 @@
         <v>0</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
       <c r="I20" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1556,7 +1581,9 @@
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
       <c r="I21" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1601,7 +1628,9 @@
         <v>0</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1646,7 +1675,9 @@
         <v>0</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
       <c r="I23" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1691,7 +1722,9 @@
         <v>0</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
       <c r="I24" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1736,7 +1769,9 @@
         <v>0</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
       <c r="I25" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1781,7 +1816,9 @@
         <v>0</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
       <c r="I26" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1826,7 +1863,9 @@
         <v>0</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
       <c r="I27" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1871,7 +1910,9 @@
         <v>0</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
       <c r="I28" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1916,7 +1957,9 @@
         <v>0</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="5"/>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
       <c r="I29" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -1961,7 +2004,9 @@
         <v>0</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
       <c r="I30" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -2006,7 +2051,9 @@
         <v>0</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
       <c r="I31" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -2051,7 +2098,9 @@
         <v>0</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="5"/>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
       <c r="I32" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
